--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H2">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I2">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J2">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>53.3273159242114</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N2">
-        <v>53.3273159242114</v>
+        <v>0.301615</v>
       </c>
       <c r="O2">
-        <v>0.2932023480678281</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="P2">
-        <v>0.2932023480678281</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="Q2">
-        <v>183.6230836134847</v>
+        <v>0.0523846607638889</v>
       </c>
       <c r="R2">
-        <v>183.6230836134847</v>
+        <v>0.471461946875</v>
       </c>
       <c r="S2">
-        <v>0.01034984638793105</v>
+        <v>2.711352797540946E-06</v>
       </c>
       <c r="T2">
-        <v>0.01034984638793105</v>
+        <v>2.711352797540947E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -599,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H3">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I3">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J3">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>83.230191293811</v>
+        <v>59.92131566666666</v>
       </c>
       <c r="N3">
-        <v>83.230191293811</v>
+        <v>179.763947</v>
       </c>
       <c r="O3">
-        <v>0.4576132718204262</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="P3">
-        <v>0.4576132718204262</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="Q3">
-        <v>286.5882917645792</v>
+        <v>31.22150218381944</v>
       </c>
       <c r="R3">
-        <v>286.5882917645792</v>
+        <v>280.9935196543749</v>
       </c>
       <c r="S3">
-        <v>0.01615344181119685</v>
+        <v>0.001615978915489788</v>
       </c>
       <c r="T3">
-        <v>0.01615344181119685</v>
+        <v>0.001615978915489788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,111 +664,111 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H4">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I4">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J4">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3213770256839</v>
+        <v>84.77971400000001</v>
       </c>
       <c r="N4">
-        <v>45.3213770256839</v>
+        <v>254.339142</v>
       </c>
       <c r="O4">
-        <v>0.2491843801117457</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="P4">
-        <v>0.2491843801117457</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="Q4">
-        <v>156.0560635546085</v>
+        <v>44.17376348208334</v>
       </c>
       <c r="R4">
-        <v>156.0560635546085</v>
+        <v>397.5638713387501</v>
       </c>
       <c r="S4">
-        <v>0.008796041619120216</v>
+        <v>0.002286368861581367</v>
       </c>
       <c r="T4">
-        <v>0.008796041619120216</v>
+        <v>0.002286368861581367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>13.086028286813</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H5">
-        <v>13.086028286813</v>
+        <v>1.563125</v>
       </c>
       <c r="I5">
-        <v>0.1341518801759148</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J5">
-        <v>0.1341518801759148</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.3273159242114</v>
+        <v>47.15797833333334</v>
       </c>
       <c r="N5">
-        <v>53.3273159242114</v>
+        <v>141.473935</v>
       </c>
       <c r="O5">
-        <v>0.2932023480678281</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="P5">
-        <v>0.2932023480678281</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="Q5">
-        <v>697.8427646440438</v>
+        <v>24.57127162743056</v>
       </c>
       <c r="R5">
-        <v>697.8427646440438</v>
+        <v>221.141444646875</v>
       </c>
       <c r="S5">
-        <v>0.03933364626529215</v>
+        <v>0.001271772787962721</v>
       </c>
       <c r="T5">
-        <v>0.03933364626529215</v>
+        <v>0.001271772787962721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H6">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I6">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J6">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>83.230191293811</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N6">
-        <v>83.230191293811</v>
+        <v>0.301615</v>
       </c>
       <c r="O6">
-        <v>0.4576132718204262</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="P6">
-        <v>0.4576132718204262</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="Q6">
-        <v>1089.152637587668</v>
+        <v>0.3514178028511111</v>
       </c>
       <c r="R6">
-        <v>1089.152637587668</v>
+        <v>3.16276022566</v>
       </c>
       <c r="S6">
-        <v>0.06138968080816215</v>
+        <v>1.818886729381806E-05</v>
       </c>
       <c r="T6">
-        <v>0.06138968080816215</v>
+        <v>1.818886729381806E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H7">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I7">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J7">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3213770256839</v>
+        <v>59.92131566666666</v>
       </c>
       <c r="N7">
-        <v>45.3213770256839</v>
+        <v>179.763947</v>
       </c>
       <c r="O7">
-        <v>0.2491843801117457</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="P7">
-        <v>0.2491843801117457</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="Q7">
-        <v>593.0768217554164</v>
+        <v>209.4466498237275</v>
       </c>
       <c r="R7">
-        <v>593.0768217554164</v>
+        <v>1885.019848413547</v>
       </c>
       <c r="S7">
-        <v>0.03342855310246052</v>
+        <v>0.01084064975613262</v>
       </c>
       <c r="T7">
-        <v>0.03342855310246052</v>
+        <v>0.01084064975613263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2979411696317</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H8">
-        <v>17.2979411696317</v>
+        <v>10.486084</v>
       </c>
       <c r="I8">
-        <v>0.1773304535354636</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J8">
-        <v>0.1773304535354636</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3273159242114</v>
+        <v>84.77971400000001</v>
       </c>
       <c r="N8">
-        <v>53.3273159242114</v>
+        <v>254.339142</v>
       </c>
       <c r="O8">
-        <v>0.2932023480678281</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="P8">
-        <v>0.2932023480678281</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="Q8">
-        <v>922.4527735913724</v>
+        <v>296.3357341666587</v>
       </c>
       <c r="R8">
-        <v>922.4527735913724</v>
+        <v>2667.021607499928</v>
       </c>
       <c r="S8">
-        <v>0.05199370536053083</v>
+        <v>0.01533790063976111</v>
       </c>
       <c r="T8">
-        <v>0.05199370536053083</v>
+        <v>0.01533790063976111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2979411696317</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H9">
-        <v>17.2979411696317</v>
+        <v>10.486084</v>
       </c>
       <c r="I9">
-        <v>0.1773304535354636</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J9">
-        <v>0.1773304535354636</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>83.230191293811</v>
+        <v>47.15797833333334</v>
       </c>
       <c r="N9">
-        <v>83.230191293811</v>
+        <v>141.473935</v>
       </c>
       <c r="O9">
-        <v>0.4576132718204262</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="P9">
-        <v>0.4576132718204262</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="Q9">
-        <v>1439.710952537535</v>
+        <v>164.8341740245044</v>
       </c>
       <c r="R9">
-        <v>1439.710952537535</v>
+        <v>1483.50756622054</v>
       </c>
       <c r="S9">
-        <v>0.08114876903576357</v>
+        <v>0.008531573791917648</v>
       </c>
       <c r="T9">
-        <v>0.08114876903576357</v>
+        <v>0.00853157379191765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H10">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I10">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J10">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>45.3213770256839</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N10">
-        <v>45.3213770256839</v>
+        <v>0.301615</v>
       </c>
       <c r="O10">
-        <v>0.2491843801117457</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="P10">
-        <v>0.2491843801117457</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="Q10">
-        <v>783.9665135169778</v>
+        <v>1.413393326198334</v>
       </c>
       <c r="R10">
-        <v>783.9665135169778</v>
+        <v>12.720539935785</v>
       </c>
       <c r="S10">
-        <v>0.04418797913916922</v>
+        <v>7.315515445038957E-05</v>
       </c>
       <c r="T10">
-        <v>0.04418797913916922</v>
+        <v>7.315515445038958E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.9636522026086</v>
+        <v>14.058253</v>
       </c>
       <c r="H11">
-        <v>62.9636522026086</v>
+        <v>42.174759</v>
       </c>
       <c r="I11">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J11">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.3273159242114</v>
+        <v>59.92131566666666</v>
       </c>
       <c r="N11">
-        <v>53.3273159242114</v>
+        <v>179.763947</v>
       </c>
       <c r="O11">
-        <v>0.2932023480678281</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="P11">
-        <v>0.2932023480678281</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="Q11">
-        <v>3357.682572750678</v>
+        <v>842.3890157348636</v>
       </c>
       <c r="R11">
-        <v>3357.682572750678</v>
+        <v>7581.501141613772</v>
       </c>
       <c r="S11">
-        <v>0.1892545216186021</v>
+        <v>0.04360081331298722</v>
       </c>
       <c r="T11">
-        <v>0.1892545216186021</v>
+        <v>0.04360081331298724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.9636522026086</v>
+        <v>14.058253</v>
       </c>
       <c r="H12">
-        <v>62.9636522026086</v>
+        <v>42.174759</v>
       </c>
       <c r="I12">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J12">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.230191293811</v>
+        <v>84.77971400000001</v>
       </c>
       <c r="N12">
-        <v>83.230191293811</v>
+        <v>254.339142</v>
       </c>
       <c r="O12">
-        <v>0.4576132718204262</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="P12">
-        <v>0.4576132718204262</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="Q12">
-        <v>5240.476817380099</v>
+        <v>1191.854668679642</v>
       </c>
       <c r="R12">
-        <v>5240.476817380099</v>
+        <v>10726.69201811678</v>
       </c>
       <c r="S12">
-        <v>0.2953775145916061</v>
+        <v>0.06168864020618856</v>
       </c>
       <c r="T12">
-        <v>0.2953775145916061</v>
+        <v>0.06168864020618858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.9636522026086</v>
+        <v>14.058253</v>
       </c>
       <c r="H13">
-        <v>62.9636522026086</v>
+        <v>42.174759</v>
       </c>
       <c r="I13">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J13">
-        <v>0.6454740995962992</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.3213770256839</v>
+        <v>47.15797833333334</v>
       </c>
       <c r="N13">
-        <v>45.3213770256839</v>
+        <v>141.473935</v>
       </c>
       <c r="O13">
-        <v>0.2491843801117457</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="P13">
-        <v>0.2491843801117457</v>
+        <v>0.2456662314227634</v>
       </c>
       <c r="Q13">
-        <v>2853.599420388457</v>
+        <v>662.9587903785184</v>
       </c>
       <c r="R13">
-        <v>2853.599420388457</v>
+        <v>5966.629113406666</v>
       </c>
       <c r="S13">
-        <v>0.160842063386091</v>
+        <v>0.03431376942668427</v>
       </c>
       <c r="T13">
-        <v>0.160842063386091</v>
+        <v>0.03431376942668427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7554221577888131</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H14">
-        <v>0.7554221577888131</v>
+        <v>52.075024</v>
       </c>
       <c r="I14">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J14">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>53.3273159242114</v>
+        <v>0.1005383333333333</v>
       </c>
       <c r="N14">
-        <v>53.3273159242114</v>
+        <v>0.301615</v>
       </c>
       <c r="O14">
-        <v>0.2932023480678281</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="P14">
-        <v>0.2932023480678281</v>
+        <v>0.0005237475043765254</v>
       </c>
       <c r="Q14">
-        <v>40.2846360645535</v>
+        <v>1.745178707084444</v>
       </c>
       <c r="R14">
-        <v>40.2846360645535</v>
+        <v>15.70660836376</v>
       </c>
       <c r="S14">
-        <v>0.002270628435472026</v>
+        <v>9.032787653221072E-05</v>
       </c>
       <c r="T14">
-        <v>0.002270628435472026</v>
+        <v>9.032787653221075E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7554221577888131</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H15">
-        <v>0.7554221577888131</v>
+        <v>52.075024</v>
       </c>
       <c r="I15">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J15">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>83.230191293811</v>
+        <v>59.92131566666666</v>
       </c>
       <c r="N15">
-        <v>83.230191293811</v>
+        <v>179.763947</v>
       </c>
       <c r="O15">
-        <v>0.4576132718204262</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="P15">
-        <v>0.4576132718204262</v>
+        <v>0.3121559558315202</v>
       </c>
       <c r="Q15">
-        <v>62.87393070034639</v>
+        <v>1040.134650484414</v>
       </c>
       <c r="R15">
-        <v>62.87393070034639</v>
+        <v>9361.211854359726</v>
       </c>
       <c r="S15">
-        <v>0.003543865573697506</v>
+        <v>0.05383583578256674</v>
       </c>
       <c r="T15">
-        <v>0.003543865573697506</v>
+        <v>0.05383583578256677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7554221577888131</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H16">
-        <v>0.7554221577888131</v>
+        <v>52.075024</v>
       </c>
       <c r="I16">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J16">
-        <v>0.007744236874074245</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.3213770256839</v>
+        <v>84.77971400000001</v>
       </c>
       <c r="N16">
-        <v>45.3213770256839</v>
+        <v>254.339142</v>
       </c>
       <c r="O16">
-        <v>0.2491843801117457</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="P16">
-        <v>0.2491843801117457</v>
+        <v>0.4416540652413399</v>
       </c>
       <c r="Q16">
-        <v>34.23677242670247</v>
+        <v>1471.635213754379</v>
       </c>
       <c r="R16">
-        <v>34.23677242670247</v>
+        <v>13244.71692378941</v>
       </c>
       <c r="S16">
-        <v>0.001929742864904714</v>
+        <v>0.07616966866994151</v>
       </c>
       <c r="T16">
-        <v>0.001929742864904714</v>
+        <v>0.07616966866994154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.35834133333333</v>
+      </c>
+      <c r="H17">
+        <v>52.075024</v>
+      </c>
+      <c r="I17">
+        <v>0.1724645478544819</v>
+      </c>
+      <c r="J17">
+        <v>0.1724645478544819</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.15797833333334</v>
+      </c>
+      <c r="N17">
+        <v>141.473935</v>
+      </c>
+      <c r="O17">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="P17">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="Q17">
+        <v>818.5842844999378</v>
+      </c>
+      <c r="R17">
+        <v>7367.25856049944</v>
+      </c>
+      <c r="S17">
+        <v>0.04236871552544139</v>
+      </c>
+      <c r="T17">
+        <v>0.04236871552544141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>64.38968300000001</v>
+      </c>
+      <c r="H18">
+        <v>193.169049</v>
+      </c>
+      <c r="I18">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="J18">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1005383333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.301615</v>
+      </c>
+      <c r="O18">
+        <v>0.0005237475043765254</v>
+      </c>
+      <c r="P18">
+        <v>0.0005237475043765254</v>
+      </c>
+      <c r="Q18">
+        <v>6.473631412681668</v>
+      </c>
+      <c r="R18">
+        <v>58.262682714135</v>
+      </c>
+      <c r="S18">
+        <v>0.0003350656162523625</v>
+      </c>
+      <c r="T18">
+        <v>0.0003350656162523625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>64.38968300000001</v>
+      </c>
+      <c r="H19">
+        <v>193.169049</v>
+      </c>
+      <c r="I19">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="J19">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.92131566666666</v>
+      </c>
+      <c r="N19">
+        <v>179.763947</v>
+      </c>
+      <c r="O19">
+        <v>0.3121559558315202</v>
+      </c>
+      <c r="P19">
+        <v>0.3121559558315202</v>
+      </c>
+      <c r="Q19">
+        <v>3858.3145207196</v>
+      </c>
+      <c r="R19">
+        <v>34724.83068647639</v>
+      </c>
+      <c r="S19">
+        <v>0.1997006703297648</v>
+      </c>
+      <c r="T19">
+        <v>0.1997006703297649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>64.38968300000001</v>
+      </c>
+      <c r="H20">
+        <v>193.169049</v>
+      </c>
+      <c r="I20">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="J20">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.77971400000001</v>
+      </c>
+      <c r="N20">
+        <v>254.339142</v>
+      </c>
+      <c r="O20">
+        <v>0.4416540652413399</v>
+      </c>
+      <c r="P20">
+        <v>0.4416540652413399</v>
+      </c>
+      <c r="Q20">
+        <v>5458.938909290663</v>
+      </c>
+      <c r="R20">
+        <v>49130.45018361597</v>
+      </c>
+      <c r="S20">
+        <v>0.2825466284877315</v>
+      </c>
+      <c r="T20">
+        <v>0.2825466284877315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>64.38968300000001</v>
+      </c>
+      <c r="H21">
+        <v>193.169049</v>
+      </c>
+      <c r="I21">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="J21">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>47.15797833333334</v>
+      </c>
+      <c r="N21">
+        <v>141.473935</v>
+      </c>
+      <c r="O21">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="P21">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="Q21">
+        <v>3036.487275804202</v>
+      </c>
+      <c r="R21">
+        <v>27328.38548223782</v>
+      </c>
+      <c r="S21">
+        <v>0.1571641039551139</v>
+      </c>
+      <c r="T21">
+        <v>0.1571641039551139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.478212</v>
+      </c>
+      <c r="I22">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J22">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1005383333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.301615</v>
+      </c>
+      <c r="O22">
+        <v>0.0005237475043765254</v>
+      </c>
+      <c r="P22">
+        <v>0.0005237475043765254</v>
+      </c>
+      <c r="Q22">
+        <v>0.08305176804222224</v>
+      </c>
+      <c r="R22">
+        <v>0.74746591238</v>
+      </c>
+      <c r="S22">
+        <v>4.298637050203626E-06</v>
+      </c>
+      <c r="T22">
+        <v>4.298637050203627E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.478212</v>
+      </c>
+      <c r="I23">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J23">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>59.92131566666666</v>
+      </c>
+      <c r="N23">
+        <v>179.763947</v>
+      </c>
+      <c r="O23">
+        <v>0.3121559558315202</v>
+      </c>
+      <c r="P23">
+        <v>0.3121559558315202</v>
+      </c>
+      <c r="Q23">
+        <v>49.49924118030711</v>
+      </c>
+      <c r="R23">
+        <v>445.493170622764</v>
+      </c>
+      <c r="S23">
+        <v>0.002562007734578986</v>
+      </c>
+      <c r="T23">
+        <v>0.002562007734578987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.478212</v>
+      </c>
+      <c r="I24">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J24">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>84.77971400000001</v>
+      </c>
+      <c r="N24">
+        <v>254.339142</v>
+      </c>
+      <c r="O24">
+        <v>0.4416540652413399</v>
+      </c>
+      <c r="P24">
+        <v>0.4416540652413399</v>
+      </c>
+      <c r="Q24">
+        <v>70.03403486378934</v>
+      </c>
+      <c r="R24">
+        <v>630.3063137741041</v>
+      </c>
+      <c r="S24">
+        <v>0.003624858376135806</v>
+      </c>
+      <c r="T24">
+        <v>0.003624858376135807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.478212</v>
+      </c>
+      <c r="I25">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J25">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>47.15797833333334</v>
+      </c>
+      <c r="N25">
+        <v>141.473935</v>
+      </c>
+      <c r="O25">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="P25">
+        <v>0.2456662314227634</v>
+      </c>
+      <c r="Q25">
+        <v>38.9558226004689</v>
+      </c>
+      <c r="R25">
+        <v>350.60240340422</v>
+      </c>
+      <c r="S25">
+        <v>0.002016295935643451</v>
+      </c>
+      <c r="T25">
+        <v>0.002016295935643452</v>
       </c>
     </row>
   </sheetData>
